--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3345.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3345.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197723897583632</v>
+        <v>1.192707896232605</v>
       </c>
       <c r="B1">
-        <v>2.859445111704776</v>
+        <v>3.848259210586548</v>
       </c>
       <c r="C1">
-        <v>7.475828509240965</v>
+        <v>3.216675996780396</v>
       </c>
       <c r="D1">
-        <v>2.094586543807497</v>
+        <v>2.568390130996704</v>
       </c>
       <c r="E1">
-        <v>1.184604638316843</v>
+        <v>1.319860935211182</v>
       </c>
     </row>
   </sheetData>
